--- a/output/CombinedData.xlsx
+++ b/output/CombinedData.xlsx
@@ -866,7 +866,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI2">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH3">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI3">
         <v>5</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH4">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI4">
         <v>5</v>
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH5">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI5">
         <v>5</v>
@@ -1690,7 +1690,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI6">
         <v>5</v>
@@ -1798,16 +1798,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>3</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH7">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI7">
         <v>5</v>
@@ -2097,7 +2097,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH8">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI8">
         <v>5</v>
@@ -2298,7 +2298,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI9">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH10">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI10">
         <v>5</v>
@@ -2700,7 +2700,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH11">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI11">
         <v>5</v>
@@ -2901,7 +2901,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH12">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI12">
         <v>5</v>
@@ -3102,7 +3102,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH13">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI13">
         <v>5</v>
@@ -3303,7 +3303,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH14">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI14">
         <v>5</v>
@@ -3504,7 +3504,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH15">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI15">
         <v>5</v>
@@ -3705,7 +3705,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH16">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI16">
         <v>5</v>
@@ -3906,7 +3906,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH17">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI17">
         <v>5</v>
@@ -4107,7 +4107,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH18">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI18">
         <v>5</v>
@@ -4308,7 +4308,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH19">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI19">
         <v>5</v>
@@ -4509,7 +4509,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH20">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI20">
         <v>5</v>
@@ -4710,7 +4710,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH21">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI21">
         <v>5</v>
@@ -4916,7 +4916,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH22">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI22">
         <v>5</v>
@@ -5122,7 +5122,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH23">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI23">
         <v>5</v>
@@ -5323,7 +5323,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH24">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI24">
         <v>5</v>
@@ -5529,7 +5529,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH25">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI25">
         <v>5</v>
@@ -5735,7 +5735,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH26">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI26">
         <v>5</v>
@@ -5936,7 +5936,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH27">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI27">
         <v>5</v>
@@ -6137,7 +6137,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH28">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI28">
         <v>5</v>
@@ -6343,7 +6343,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH29">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI29">
         <v>5</v>
@@ -6549,7 +6549,7 @@
         <v>1459.406</v>
       </c>
       <c r="BH30">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="BI30">
         <v>5</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BEAV_N_06</t>
+          <t>BEAV_N_07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8010,17 +8010,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>45°55.423'</t>
+          <t>45°55.518'</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>74°03.933'</t>
+          <t>74°03.762'</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BEAV_N_07</t>
+          <t>BEAV_N_09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8216,17 +8216,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>45°55.518'</t>
+          <t>45°55.423'</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>74°03.762'</t>
+          <t>74°03.933'</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -8234,11 +8234,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -8440,11 +8435,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
       <c r="I41">
         <v>0</v>
       </c>
@@ -10759,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -10768,7 +10758,7 @@
         <v>42</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -10857,7 +10847,7 @@
         <v>999.039</v>
       </c>
       <c r="BH52">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI52">
         <v>3</v>
@@ -10965,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -10974,7 +10964,7 @@
         <v>38</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -11063,7 +11053,7 @@
         <v>999.039</v>
       </c>
       <c r="BH53">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI53">
         <v>3</v>
@@ -11264,7 +11254,7 @@
         <v>999.039</v>
       </c>
       <c r="BH54">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI54">
         <v>3</v>
@@ -11465,7 +11455,7 @@
         <v>999.039</v>
       </c>
       <c r="BH55">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI55">
         <v>3</v>
@@ -11666,7 +11656,7 @@
         <v>999.039</v>
       </c>
       <c r="BH56">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI56">
         <v>3</v>
@@ -11872,7 +11862,7 @@
         <v>999.039</v>
       </c>
       <c r="BH57">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI57">
         <v>3</v>
@@ -12073,7 +12063,7 @@
         <v>999.039</v>
       </c>
       <c r="BH58">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI58">
         <v>3</v>
@@ -12279,7 +12269,7 @@
         <v>999.039</v>
       </c>
       <c r="BH59">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI59">
         <v>3</v>
@@ -12485,7 +12475,7 @@
         <v>999.039</v>
       </c>
       <c r="BH60">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI60">
         <v>3</v>
@@ -12686,7 +12676,7 @@
         <v>999.039</v>
       </c>
       <c r="BH61">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI61">
         <v>3</v>
@@ -12887,7 +12877,7 @@
         <v>999.039</v>
       </c>
       <c r="BH62">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI62">
         <v>3</v>
@@ -13093,7 +13083,7 @@
         <v>999.039</v>
       </c>
       <c r="BH63">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI63">
         <v>3</v>
@@ -13294,7 +13284,7 @@
         <v>999.039</v>
       </c>
       <c r="BH64">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI64">
         <v>3</v>
@@ -13495,7 +13485,7 @@
         <v>999.039</v>
       </c>
       <c r="BH65">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI65">
         <v>3</v>
@@ -13696,7 +13686,7 @@
         <v>999.039</v>
       </c>
       <c r="BH66">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI66">
         <v>3</v>
@@ -13897,7 +13887,7 @@
         <v>999.039</v>
       </c>
       <c r="BH67">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI67">
         <v>3</v>
@@ -14103,7 +14093,7 @@
         <v>999.039</v>
       </c>
       <c r="BH68">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI68">
         <v>3</v>
@@ -14309,7 +14299,7 @@
         <v>999.039</v>
       </c>
       <c r="BH69">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI69">
         <v>3</v>
@@ -14515,7 +14505,7 @@
         <v>999.039</v>
       </c>
       <c r="BH70">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI70">
         <v>3</v>
@@ -14721,7 +14711,7 @@
         <v>999.039</v>
       </c>
       <c r="BH71">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI71">
         <v>3</v>
@@ -14927,7 +14917,7 @@
         <v>999.039</v>
       </c>
       <c r="BH72">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI72">
         <v>3</v>
@@ -15035,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -15044,7 +15034,7 @@
         <v>53</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -15133,7 +15123,7 @@
         <v>999.039</v>
       </c>
       <c r="BH73">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI73">
         <v>3</v>
@@ -15235,13 +15225,13 @@
         <v>0</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -15250,7 +15240,7 @@
         <v>66</v>
       </c>
       <c r="AE74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -15339,7 +15329,7 @@
         <v>999.039</v>
       </c>
       <c r="BH74">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI74">
         <v>3</v>
@@ -15540,7 +15530,7 @@
         <v>999.039</v>
       </c>
       <c r="BH75">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI75">
         <v>3</v>
@@ -15746,7 +15736,7 @@
         <v>999.039</v>
       </c>
       <c r="BH76">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="BI76">
         <v>3</v>
@@ -15952,7 +15942,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH77">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI77">
         <v>3</v>
@@ -16153,7 +16143,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH78">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI78">
         <v>3</v>
@@ -16354,7 +16344,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH79">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI79">
         <v>3</v>
@@ -16555,7 +16545,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH80">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI80">
         <v>3</v>
@@ -16761,7 +16751,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH81">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI81">
         <v>3</v>
@@ -16962,7 +16952,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH82">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI82">
         <v>3</v>
@@ -17163,7 +17153,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH83">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI83">
         <v>3</v>
@@ -17364,7 +17354,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH84">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI84">
         <v>3</v>
@@ -17565,7 +17555,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH85">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI85">
         <v>3</v>
@@ -17766,7 +17756,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH86">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI86">
         <v>3</v>
@@ -17967,7 +17957,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH87">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI87">
         <v>3</v>
@@ -18173,7 +18163,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH88">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI88">
         <v>3</v>
@@ -18379,7 +18369,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH89">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI89">
         <v>3</v>
@@ -18580,7 +18570,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH90">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI90">
         <v>3</v>
@@ -18781,7 +18771,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH91">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI91">
         <v>3</v>
@@ -18982,7 +18972,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH92">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI92">
         <v>3</v>
@@ -19188,7 +19178,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH93">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI93">
         <v>3</v>
@@ -19296,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="AB94">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -19305,7 +19295,7 @@
         <v>55</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -19394,7 +19384,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH94">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI94">
         <v>3</v>
@@ -19502,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -19511,7 +19501,7 @@
         <v>272</v>
       </c>
       <c r="AE95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -19600,7 +19590,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH95">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI95">
         <v>3</v>
@@ -19702,13 +19692,13 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -19717,7 +19707,7 @@
         <v>141</v>
       </c>
       <c r="AE96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -19806,7 +19796,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH96">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI96">
         <v>3</v>
@@ -19914,7 +19904,7 @@
         <v>0</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -19923,7 +19913,7 @@
         <v>57</v>
       </c>
       <c r="AE97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -20012,7 +20002,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH97">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI97">
         <v>3</v>
@@ -20218,7 +20208,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH98">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI98">
         <v>3</v>
@@ -20424,7 +20414,7 @@
         <v>845.6369999999999</v>
       </c>
       <c r="BH99">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="BI99">
         <v>3</v>
@@ -20630,7 +20620,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH100">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI100">
         <v>6</v>
@@ -20836,7 +20826,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH101">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI101">
         <v>6</v>
@@ -21042,7 +21032,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH102">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI102">
         <v>6</v>
@@ -21248,7 +21238,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH103">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI103">
         <v>6</v>
@@ -21454,7 +21444,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH104">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI104">
         <v>6</v>
@@ -21660,7 +21650,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH105">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI105">
         <v>6</v>
@@ -21866,7 +21856,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH106">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI106">
         <v>6</v>
@@ -22072,7 +22062,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH107">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI107">
         <v>6</v>
@@ -22278,7 +22268,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH108">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI108">
         <v>6</v>
@@ -22484,7 +22474,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH109">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI109">
         <v>6</v>
@@ -22690,7 +22680,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH110">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI110">
         <v>6</v>
@@ -22896,7 +22886,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH111">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI111">
         <v>6</v>
@@ -23097,7 +23087,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH112">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI112">
         <v>6</v>
@@ -23303,7 +23293,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH113">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI113">
         <v>6</v>
@@ -23509,7 +23499,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH114">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI114">
         <v>6</v>
@@ -23715,7 +23705,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH115">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI115">
         <v>6</v>
@@ -23921,7 +23911,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH116">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI116">
         <v>6</v>
@@ -24127,7 +24117,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH117">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI117">
         <v>6</v>
@@ -24333,7 +24323,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH118">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI118">
         <v>6</v>
@@ -24534,7 +24524,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH119">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI119">
         <v>6</v>
@@ -24740,7 +24730,7 @@
         <v>959.4880000000001</v>
       </c>
       <c r="BH120">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="BI120">
         <v>6</v>
@@ -24941,7 +24931,7 @@
         <v>452.447</v>
       </c>
       <c r="BH121">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI121">
         <v>5</v>
@@ -25147,7 +25137,7 @@
         <v>452.447</v>
       </c>
       <c r="BH122">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI122">
         <v>5</v>
@@ -25353,7 +25343,7 @@
         <v>452.447</v>
       </c>
       <c r="BH123">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI123">
         <v>5</v>
@@ -25559,7 +25549,7 @@
         <v>452.447</v>
       </c>
       <c r="BH124">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI124">
         <v>5</v>
@@ -25765,7 +25755,7 @@
         <v>452.447</v>
       </c>
       <c r="BH125">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI125">
         <v>5</v>
@@ -25971,7 +25961,7 @@
         <v>452.447</v>
       </c>
       <c r="BH126">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI126">
         <v>5</v>
@@ -26177,7 +26167,7 @@
         <v>452.447</v>
       </c>
       <c r="BH127">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI127">
         <v>5</v>
@@ -26383,7 +26373,7 @@
         <v>452.447</v>
       </c>
       <c r="BH128">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI128">
         <v>5</v>
@@ -26589,7 +26579,7 @@
         <v>452.447</v>
       </c>
       <c r="BH129">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI129">
         <v>5</v>
@@ -26795,7 +26785,7 @@
         <v>452.447</v>
       </c>
       <c r="BH130">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI130">
         <v>5</v>
@@ -27001,7 +26991,7 @@
         <v>452.447</v>
       </c>
       <c r="BH131">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI131">
         <v>5</v>
@@ -27207,7 +27197,7 @@
         <v>452.447</v>
       </c>
       <c r="BH132">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI132">
         <v>5</v>
@@ -27413,7 +27403,7 @@
         <v>452.447</v>
       </c>
       <c r="BH133">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI133">
         <v>5</v>
@@ -27619,7 +27609,7 @@
         <v>452.447</v>
       </c>
       <c r="BH134">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI134">
         <v>5</v>
@@ -27825,7 +27815,7 @@
         <v>452.447</v>
       </c>
       <c r="BH135">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI135">
         <v>5</v>
@@ -28031,7 +28021,7 @@
         <v>452.447</v>
       </c>
       <c r="BH136">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI136">
         <v>5</v>
@@ -28237,7 +28227,7 @@
         <v>452.447</v>
       </c>
       <c r="BH137">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI137">
         <v>5</v>
@@ -28443,7 +28433,7 @@
         <v>452.447</v>
       </c>
       <c r="BH138">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI138">
         <v>5</v>
@@ -28649,7 +28639,7 @@
         <v>452.447</v>
       </c>
       <c r="BH139">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI139">
         <v>5</v>
@@ -28855,7 +28845,7 @@
         <v>452.447</v>
       </c>
       <c r="BH140">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI140">
         <v>5</v>
@@ -29061,7 +29051,7 @@
         <v>452.447</v>
       </c>
       <c r="BH141">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI141">
         <v>5</v>
@@ -29267,7 +29257,7 @@
         <v>452.447</v>
       </c>
       <c r="BH142">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI142">
         <v>5</v>
@@ -29473,13 +29463,13 @@
         <v>785.556</v>
       </c>
       <c r="BH143">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI143">
         <v>5</v>
       </c>
       <c r="BJ143">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="144">
@@ -29679,13 +29669,13 @@
         <v>785.556</v>
       </c>
       <c r="BH144">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI144">
         <v>5</v>
       </c>
       <c r="BJ144">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="145">
@@ -29885,13 +29875,13 @@
         <v>785.556</v>
       </c>
       <c r="BH145">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI145">
         <v>5</v>
       </c>
       <c r="BJ145">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="146">
@@ -30091,13 +30081,13 @@
         <v>785.556</v>
       </c>
       <c r="BH146">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI146">
         <v>5</v>
       </c>
       <c r="BJ146">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="147">
@@ -30297,13 +30287,13 @@
         <v>785.556</v>
       </c>
       <c r="BH147">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI147">
         <v>5</v>
       </c>
       <c r="BJ147">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="148">
@@ -30503,13 +30493,13 @@
         <v>785.556</v>
       </c>
       <c r="BH148">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI148">
         <v>5</v>
       </c>
       <c r="BJ148">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="149">
@@ -30709,13 +30699,13 @@
         <v>785.556</v>
       </c>
       <c r="BH149">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI149">
         <v>5</v>
       </c>
       <c r="BJ149">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="150">
@@ -30910,13 +30900,13 @@
         <v>785.556</v>
       </c>
       <c r="BH150">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI150">
         <v>5</v>
       </c>
       <c r="BJ150">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="151">
@@ -31116,13 +31106,13 @@
         <v>785.556</v>
       </c>
       <c r="BH151">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI151">
         <v>5</v>
       </c>
       <c r="BJ151">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="152">
@@ -31322,13 +31312,13 @@
         <v>785.556</v>
       </c>
       <c r="BH152">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI152">
         <v>5</v>
       </c>
       <c r="BJ152">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="153">
@@ -31528,13 +31518,13 @@
         <v>785.556</v>
       </c>
       <c r="BH153">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI153">
         <v>5</v>
       </c>
       <c r="BJ153">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="154">
@@ -31729,13 +31719,13 @@
         <v>785.556</v>
       </c>
       <c r="BH154">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI154">
         <v>5</v>
       </c>
       <c r="BJ154">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="155">
@@ -31935,13 +31925,13 @@
         <v>785.556</v>
       </c>
       <c r="BH155">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI155">
         <v>5</v>
       </c>
       <c r="BJ155">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="156">
@@ -32141,13 +32131,13 @@
         <v>785.556</v>
       </c>
       <c r="BH156">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI156">
         <v>5</v>
       </c>
       <c r="BJ156">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="157">
@@ -32347,13 +32337,13 @@
         <v>785.556</v>
       </c>
       <c r="BH157">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI157">
         <v>5</v>
       </c>
       <c r="BJ157">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="158">
@@ -32553,13 +32543,13 @@
         <v>785.556</v>
       </c>
       <c r="BH158">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI158">
         <v>5</v>
       </c>
       <c r="BJ158">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="159">
@@ -32754,13 +32744,13 @@
         <v>785.556</v>
       </c>
       <c r="BH159">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI159">
         <v>5</v>
       </c>
       <c r="BJ159">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="160">
@@ -32960,13 +32950,13 @@
         <v>785.556</v>
       </c>
       <c r="BH160">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI160">
         <v>5</v>
       </c>
       <c r="BJ160">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="161">
@@ -33166,13 +33156,13 @@
         <v>785.556</v>
       </c>
       <c r="BH161">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI161">
         <v>5</v>
       </c>
       <c r="BJ161">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="162">
@@ -33372,13 +33362,13 @@
         <v>785.556</v>
       </c>
       <c r="BH162">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI162">
         <v>5</v>
       </c>
       <c r="BJ162">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="163">
@@ -33578,13 +33568,13 @@
         <v>785.556</v>
       </c>
       <c r="BH163">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI163">
         <v>5</v>
       </c>
       <c r="BJ163">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="164">
@@ -33784,13 +33774,13 @@
         <v>785.556</v>
       </c>
       <c r="BH164">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI164">
         <v>5</v>
       </c>
       <c r="BJ164">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="165">
@@ -33990,13 +33980,13 @@
         <v>785.556</v>
       </c>
       <c r="BH165">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BI165">
         <v>5</v>
       </c>
       <c r="BJ165">
-        <v>0.652292060491493</v>
+        <v>0.6501630237893971</v>
       </c>
     </row>
     <row r="166">
@@ -34191,7 +34181,7 @@
         <v>809.508</v>
       </c>
       <c r="BH166">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI166">
         <v>8</v>
@@ -34293,13 +34283,13 @@
         <v>0</v>
       </c>
       <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
         <v>4</v>
-      </c>
-      <c r="AA167">
-        <v>0</v>
-      </c>
-      <c r="AB167">
-        <v>1</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -34308,7 +34298,7 @@
         <v>25</v>
       </c>
       <c r="AE167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF167">
         <v>0</v>
@@ -34397,7 +34387,7 @@
         <v>809.508</v>
       </c>
       <c r="BH167">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI167">
         <v>8</v>
@@ -34603,7 +34593,7 @@
         <v>809.508</v>
       </c>
       <c r="BH168">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI168">
         <v>8</v>
@@ -34809,7 +34799,7 @@
         <v>809.508</v>
       </c>
       <c r="BH169">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI169">
         <v>8</v>
@@ -35015,7 +35005,7 @@
         <v>809.508</v>
       </c>
       <c r="BH170">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI170">
         <v>8</v>
@@ -35216,7 +35206,7 @@
         <v>809.508</v>
       </c>
       <c r="BH171">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI171">
         <v>8</v>
@@ -35422,7 +35412,7 @@
         <v>809.508</v>
       </c>
       <c r="BH172">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI172">
         <v>8</v>
@@ -35628,7 +35618,7 @@
         <v>809.508</v>
       </c>
       <c r="BH173">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI173">
         <v>8</v>
@@ -35829,7 +35819,7 @@
         <v>809.508</v>
       </c>
       <c r="BH174">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI174">
         <v>8</v>
@@ -36035,7 +36025,7 @@
         <v>809.508</v>
       </c>
       <c r="BH175">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI175">
         <v>8</v>
@@ -36241,7 +36231,7 @@
         <v>809.508</v>
       </c>
       <c r="BH176">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI176">
         <v>8</v>
@@ -36442,7 +36432,7 @@
         <v>809.508</v>
       </c>
       <c r="BH177">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI177">
         <v>8</v>
@@ -36648,7 +36638,7 @@
         <v>809.508</v>
       </c>
       <c r="BH178">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI178">
         <v>8</v>
@@ -36854,7 +36844,7 @@
         <v>809.508</v>
       </c>
       <c r="BH179">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI179">
         <v>8</v>
@@ -37060,7 +37050,7 @@
         <v>809.508</v>
       </c>
       <c r="BH180">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI180">
         <v>8</v>
@@ -37266,7 +37256,7 @@
         <v>809.508</v>
       </c>
       <c r="BH181">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI181">
         <v>8</v>
@@ -37472,7 +37462,7 @@
         <v>809.508</v>
       </c>
       <c r="BH182">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI182">
         <v>8</v>
@@ -37678,7 +37668,7 @@
         <v>809.508</v>
       </c>
       <c r="BH183">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI183">
         <v>8</v>
@@ -37884,7 +37874,7 @@
         <v>809.508</v>
       </c>
       <c r="BH184">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI184">
         <v>8</v>
@@ -38090,7 +38080,7 @@
         <v>809.508</v>
       </c>
       <c r="BH185">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI185">
         <v>8</v>
@@ -38192,13 +38182,13 @@
         <v>0</v>
       </c>
       <c r="Z186">
+        <v>26</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
         <v>2</v>
-      </c>
-      <c r="AA186">
-        <v>0</v>
-      </c>
-      <c r="AB186">
-        <v>3</v>
       </c>
       <c r="AC186">
         <v>0</v>
@@ -38207,7 +38197,7 @@
         <v>36</v>
       </c>
       <c r="AE186">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AF186">
         <v>0</v>
@@ -38296,7 +38286,7 @@
         <v>809.508</v>
       </c>
       <c r="BH186">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI186">
         <v>8</v>
@@ -38404,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="AB187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC187">
         <v>0</v>
@@ -38413,7 +38403,7 @@
         <v>3</v>
       </c>
       <c r="AE187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF187">
         <v>0</v>
@@ -38502,7 +38492,7 @@
         <v>809.508</v>
       </c>
       <c r="BH187">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI187">
         <v>8</v>
@@ -38610,7 +38600,7 @@
         <v>0</v>
       </c>
       <c r="AB188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC188">
         <v>0</v>
@@ -38619,7 +38609,7 @@
         <v>3</v>
       </c>
       <c r="AE188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF188">
         <v>0</v>
@@ -38708,7 +38698,7 @@
         <v>809.508</v>
       </c>
       <c r="BH188">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI188">
         <v>8</v>
@@ -38810,13 +38800,13 @@
         <v>0</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>0</v>
       </c>
       <c r="AB189">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC189">
         <v>0</v>
@@ -38825,7 +38815,7 @@
         <v>11</v>
       </c>
       <c r="AE189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF189">
         <v>0</v>
@@ -38914,7 +38904,7 @@
         <v>809.508</v>
       </c>
       <c r="BH189">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI189">
         <v>8</v>
@@ -39120,7 +39110,7 @@
         <v>809.508</v>
       </c>
       <c r="BH190">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI190">
         <v>8</v>
@@ -39326,7 +39316,7 @@
         <v>809.508</v>
       </c>
       <c r="BH191">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI191">
         <v>8</v>
@@ -39532,7 +39522,7 @@
         <v>809.508</v>
       </c>
       <c r="BH192">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="BI192">
         <v>8</v>
@@ -39640,7 +39630,7 @@
         <v>0</v>
       </c>
       <c r="AB193">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC193">
         <v>0</v>
@@ -39649,7 +39639,7 @@
         <v>21</v>
       </c>
       <c r="AE193">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF193">
         <v>0</v>
@@ -39738,7 +39728,7 @@
         <v>785.674</v>
       </c>
       <c r="BH193">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI193">
         <v>4</v>
@@ -39840,13 +39830,13 @@
         <v>0</v>
       </c>
       <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
         <v>8</v>
-      </c>
-      <c r="AA194">
-        <v>0</v>
-      </c>
-      <c r="AB194">
-        <v>15</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -39855,7 +39845,7 @@
         <v>106</v>
       </c>
       <c r="AE194">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF194">
         <v>0</v>
@@ -39944,7 +39934,7 @@
         <v>785.674</v>
       </c>
       <c r="BH194">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI194">
         <v>4</v>
@@ -40150,7 +40140,7 @@
         <v>785.674</v>
       </c>
       <c r="BH195">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI195">
         <v>4</v>
@@ -40195,11 +40185,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Juliane</t>
-        </is>
-      </c>
       <c r="I196">
         <v>0</v>
       </c>
@@ -40356,7 +40341,7 @@
         <v>785.674</v>
       </c>
       <c r="BH196">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI196">
         <v>4</v>
@@ -40464,7 +40449,7 @@
         <v>0</v>
       </c>
       <c r="AB197">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC197">
         <v>0</v>
@@ -40473,7 +40458,7 @@
         <v>192</v>
       </c>
       <c r="AE197">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF197">
         <v>0</v>
@@ -40562,7 +40547,7 @@
         <v>785.674</v>
       </c>
       <c r="BH197">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI197">
         <v>4</v>
@@ -40763,7 +40748,7 @@
         <v>785.674</v>
       </c>
       <c r="BH198">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI198">
         <v>4</v>
@@ -40964,7 +40949,7 @@
         <v>785.674</v>
       </c>
       <c r="BH199">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI199">
         <v>4</v>
@@ -41165,7 +41150,7 @@
         <v>785.674</v>
       </c>
       <c r="BH200">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI200">
         <v>4</v>
@@ -41366,7 +41351,7 @@
         <v>785.674</v>
       </c>
       <c r="BH201">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI201">
         <v>4</v>
@@ -41572,7 +41557,7 @@
         <v>785.674</v>
       </c>
       <c r="BH202">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI202">
         <v>4</v>
@@ -41778,7 +41763,7 @@
         <v>785.674</v>
       </c>
       <c r="BH203">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI203">
         <v>4</v>
@@ -41984,7 +41969,7 @@
         <v>785.674</v>
       </c>
       <c r="BH204">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI204">
         <v>4</v>
@@ -42185,7 +42170,7 @@
         <v>785.674</v>
       </c>
       <c r="BH205">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI205">
         <v>4</v>
@@ -42391,7 +42376,7 @@
         <v>785.674</v>
       </c>
       <c r="BH206">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI206">
         <v>4</v>
@@ -42592,7 +42577,7 @@
         <v>785.674</v>
       </c>
       <c r="BH207">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI207">
         <v>4</v>
@@ -42793,7 +42778,7 @@
         <v>785.674</v>
       </c>
       <c r="BH208">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI208">
         <v>4</v>
@@ -42994,7 +42979,7 @@
         <v>785.674</v>
       </c>
       <c r="BH209">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI209">
         <v>4</v>
@@ -43200,7 +43185,7 @@
         <v>785.674</v>
       </c>
       <c r="BH210">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI210">
         <v>4</v>
@@ -43406,7 +43391,7 @@
         <v>785.674</v>
       </c>
       <c r="BH211">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI211">
         <v>4</v>
@@ -43612,7 +43597,7 @@
         <v>785.674</v>
       </c>
       <c r="BH212">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI212">
         <v>4</v>
@@ -43818,7 +43803,7 @@
         <v>785.674</v>
       </c>
       <c r="BH213">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI213">
         <v>4</v>
@@ -44024,7 +44009,7 @@
         <v>785.674</v>
       </c>
       <c r="BH214">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI214">
         <v>4</v>
@@ -44230,7 +44215,7 @@
         <v>785.674</v>
       </c>
       <c r="BH215">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="BI215">
         <v>4</v>
@@ -48715,7 +48700,7 @@
         <v>0</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC239">
         <v>0</v>
@@ -48724,7 +48709,7 @@
         <v>303</v>
       </c>
       <c r="AE239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF239">
         <v>0</v>
@@ -48813,7 +48798,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH239">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI239">
         <v>3</v>
@@ -49019,7 +49004,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH240">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI240">
         <v>3</v>
@@ -49225,7 +49210,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH241">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI241">
         <v>3</v>
@@ -49431,7 +49416,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH242">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI242">
         <v>3</v>
@@ -49637,7 +49622,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH243">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI243">
         <v>3</v>
@@ -49843,7 +49828,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH244">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI244">
         <v>3</v>
@@ -50049,7 +50034,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH245">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI245">
         <v>3</v>
@@ -50255,7 +50240,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH246">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI246">
         <v>3</v>
@@ -50461,7 +50446,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH247">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI247">
         <v>3</v>
@@ -50667,7 +50652,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH248">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI248">
         <v>3</v>
@@ -50873,7 +50858,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH249">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI249">
         <v>3</v>
@@ -50981,7 +50966,7 @@
         <v>0</v>
       </c>
       <c r="AB250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC250">
         <v>0</v>
@@ -50990,7 +50975,7 @@
         <v>265</v>
       </c>
       <c r="AE250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF250">
         <v>0</v>
@@ -51079,7 +51064,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH250">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI250">
         <v>3</v>
@@ -51187,7 +51172,7 @@
         <v>0</v>
       </c>
       <c r="AB251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC251">
         <v>0</v>
@@ -51196,7 +51181,7 @@
         <v>191</v>
       </c>
       <c r="AE251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF251">
         <v>0</v>
@@ -51285,7 +51270,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH251">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI251">
         <v>3</v>
@@ -51491,7 +51476,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH252">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI252">
         <v>3</v>
@@ -51697,7 +51682,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH253">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI253">
         <v>3</v>
@@ -51903,7 +51888,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH254">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI254">
         <v>3</v>
@@ -52109,7 +52094,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH255">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI255">
         <v>3</v>
@@ -52315,7 +52300,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH256">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI256">
         <v>3</v>
@@ -52521,7 +52506,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH257">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI257">
         <v>3</v>
@@ -52727,7 +52712,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH258">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI258">
         <v>3</v>
@@ -52933,7 +52918,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH259">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI259">
         <v>3</v>
@@ -53139,7 +53124,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH260">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI260">
         <v>3</v>
@@ -53345,7 +53330,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH261">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI261">
         <v>3</v>
@@ -53551,7 +53536,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH262">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI262">
         <v>3</v>
@@ -53757,7 +53742,7 @@
         <v>1131.794</v>
       </c>
       <c r="BH263">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="BI263">
         <v>3</v>
@@ -53963,7 +53948,7 @@
         <v>511.121</v>
       </c>
       <c r="BH264">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI264">
         <v>4</v>
@@ -54169,7 +54154,7 @@
         <v>511.121</v>
       </c>
       <c r="BH265">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI265">
         <v>4</v>
@@ -54375,7 +54360,7 @@
         <v>511.121</v>
       </c>
       <c r="BH266">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI266">
         <v>4</v>
@@ -54581,7 +54566,7 @@
         <v>511.121</v>
       </c>
       <c r="BH267">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI267">
         <v>4</v>
@@ -54683,13 +54668,13 @@
         <v>0</v>
       </c>
       <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+      <c r="AB268">
         <v>19</v>
-      </c>
-      <c r="AA268">
-        <v>0</v>
-      </c>
-      <c r="AB268">
-        <v>0</v>
       </c>
       <c r="AC268">
         <v>0</v>
@@ -54787,7 +54772,7 @@
         <v>511.121</v>
       </c>
       <c r="BH268">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI268">
         <v>4</v>
@@ -54889,7 +54874,7 @@
         <v>0</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA269">
         <v>0</v>
@@ -54904,7 +54889,7 @@
         <v>31</v>
       </c>
       <c r="AE269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF269">
         <v>0</v>
@@ -54993,7 +54978,7 @@
         <v>511.121</v>
       </c>
       <c r="BH269">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI269">
         <v>4</v>
@@ -55199,7 +55184,7 @@
         <v>511.121</v>
       </c>
       <c r="BH270">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI270">
         <v>4</v>
@@ -55400,7 +55385,7 @@
         <v>511.121</v>
       </c>
       <c r="BH271">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI271">
         <v>4</v>
@@ -55606,7 +55591,7 @@
         <v>511.121</v>
       </c>
       <c r="BH272">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI272">
         <v>4</v>
@@ -55807,7 +55792,7 @@
         <v>511.121</v>
       </c>
       <c r="BH273">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI273">
         <v>4</v>
@@ -56008,7 +55993,7 @@
         <v>511.121</v>
       </c>
       <c r="BH274">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI274">
         <v>4</v>
@@ -56214,7 +56199,7 @@
         <v>511.121</v>
       </c>
       <c r="BH275">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI275">
         <v>4</v>
@@ -56415,7 +56400,7 @@
         <v>511.121</v>
       </c>
       <c r="BH276">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI276">
         <v>4</v>
@@ -56616,7 +56601,7 @@
         <v>511.121</v>
       </c>
       <c r="BH277">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI277">
         <v>4</v>
@@ -56822,7 +56807,7 @@
         <v>511.121</v>
       </c>
       <c r="BH278">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI278">
         <v>4</v>
@@ -57023,7 +57008,7 @@
         <v>511.121</v>
       </c>
       <c r="BH279">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI279">
         <v>4</v>
@@ -57229,7 +57214,7 @@
         <v>511.121</v>
       </c>
       <c r="BH280">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI280">
         <v>4</v>
@@ -57435,7 +57420,7 @@
         <v>511.121</v>
       </c>
       <c r="BH281">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI281">
         <v>4</v>
@@ -57636,7 +57621,7 @@
         <v>511.121</v>
       </c>
       <c r="BH282">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI282">
         <v>4</v>
@@ -57837,7 +57822,7 @@
         <v>511.121</v>
       </c>
       <c r="BH283">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI283">
         <v>4</v>
@@ -58043,7 +58028,7 @@
         <v>511.121</v>
       </c>
       <c r="BH284">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI284">
         <v>4</v>
@@ -58249,7 +58234,7 @@
         <v>511.121</v>
       </c>
       <c r="BH285">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI285">
         <v>4</v>
@@ -58455,7 +58440,7 @@
         <v>511.121</v>
       </c>
       <c r="BH286">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="BI286">
         <v>4</v>
@@ -58904,11 +58889,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="I290">
         <v>0</v>
       </c>
@@ -60331,11 +60311,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="I297">
         <v>0</v>
       </c>
@@ -66765,7 +66740,7 @@
         <v>452.447</v>
       </c>
       <c r="BH329">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI329">
         <v>2</v>
@@ -66971,7 +66946,7 @@
         <v>452.447</v>
       </c>
       <c r="BH330">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI330">
         <v>2</v>
@@ -67016,11 +66991,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="I331">
         <v>0</v>
       </c>
@@ -67177,7 +67147,7 @@
         <v>452.447</v>
       </c>
       <c r="BH331">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI331">
         <v>2</v>
@@ -67383,7 +67353,7 @@
         <v>452.447</v>
       </c>
       <c r="BH332">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI332">
         <v>2</v>
@@ -67428,11 +67398,6 @@
           <t>Minnow_trap</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="I333">
         <v>0</v>
       </c>
@@ -67589,7 +67554,7 @@
         <v>452.447</v>
       </c>
       <c r="BH333">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI333">
         <v>2</v>
@@ -67795,7 +67760,7 @@
         <v>452.447</v>
       </c>
       <c r="BH334">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI334">
         <v>2</v>
@@ -68001,7 +67966,7 @@
         <v>452.447</v>
       </c>
       <c r="BH335">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI335">
         <v>2</v>
@@ -68207,7 +68172,7 @@
         <v>452.447</v>
       </c>
       <c r="BH336">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI336">
         <v>2</v>
@@ -68413,7 +68378,7 @@
         <v>452.447</v>
       </c>
       <c r="BH337">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI337">
         <v>2</v>
@@ -68619,7 +68584,7 @@
         <v>452.447</v>
       </c>
       <c r="BH338">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI338">
         <v>2</v>
@@ -68825,7 +68790,7 @@
         <v>452.447</v>
       </c>
       <c r="BH339">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI339">
         <v>2</v>
@@ -69026,7 +68991,7 @@
         <v>452.447</v>
       </c>
       <c r="BH340">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI340">
         <v>2</v>
@@ -69232,7 +69197,7 @@
         <v>452.447</v>
       </c>
       <c r="BH341">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI341">
         <v>2</v>
@@ -69438,7 +69403,7 @@
         <v>452.447</v>
       </c>
       <c r="BH342">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI342">
         <v>2</v>
@@ -69644,7 +69609,7 @@
         <v>452.447</v>
       </c>
       <c r="BH343">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI343">
         <v>2</v>
@@ -69850,7 +69815,7 @@
         <v>452.447</v>
       </c>
       <c r="BH344">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI344">
         <v>2</v>
@@ -70056,7 +70021,7 @@
         <v>452.447</v>
       </c>
       <c r="BH345">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI345">
         <v>2</v>
@@ -70262,7 +70227,7 @@
         <v>452.447</v>
       </c>
       <c r="BH346">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI346">
         <v>2</v>
@@ -70468,7 +70433,7 @@
         <v>452.447</v>
       </c>
       <c r="BH347">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI347">
         <v>2</v>
@@ -70674,7 +70639,7 @@
         <v>452.447</v>
       </c>
       <c r="BH348">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI348">
         <v>2</v>
@@ -70880,7 +70845,7 @@
         <v>452.447</v>
       </c>
       <c r="BH349">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BI349">
         <v>2</v>

--- a/output/CombinedData.xlsx
+++ b/output/CombinedData.xlsx
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>42</v>
       </c>
       <c r="AE52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>38</v>
       </c>
       <c r="AE53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -15034,7 +15034,7 @@
         <v>53</v>
       </c>
       <c r="AE73">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -15225,13 +15225,13 @@
         <v>0</v>
       </c>
       <c r="Z74">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -15240,7 +15240,7 @@
         <v>66</v>
       </c>
       <c r="AE74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -19295,7 +19295,7 @@
         <v>55</v>
       </c>
       <c r="AE94">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -19492,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -19501,7 +19501,7 @@
         <v>272</v>
       </c>
       <c r="AE95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -19692,13 +19692,13 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA96">
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -19707,7 +19707,7 @@
         <v>141</v>
       </c>
       <c r="AE96">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -19904,7 +19904,7 @@
         <v>0</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -19913,7 +19913,7 @@
         <v>57</v>
       </c>
       <c r="AE97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -34283,13 +34283,13 @@
         <v>0</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA167">
         <v>0</v>
       </c>
       <c r="AB167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -34298,7 +34298,7 @@
         <v>25</v>
       </c>
       <c r="AE167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF167">
         <v>0</v>
@@ -38182,13 +38182,13 @@
         <v>0</v>
       </c>
       <c r="Z186">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AA186">
         <v>0</v>
       </c>
       <c r="AB186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC186">
         <v>0</v>
@@ -38197,7 +38197,7 @@
         <v>36</v>
       </c>
       <c r="AE186">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AF186">
         <v>0</v>
@@ -38394,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC187">
         <v>0</v>
@@ -38403,7 +38403,7 @@
         <v>3</v>
       </c>
       <c r="AE187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF187">
         <v>0</v>
@@ -38600,7 +38600,7 @@
         <v>0</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC188">
         <v>0</v>
@@ -38609,7 +38609,7 @@
         <v>3</v>
       </c>
       <c r="AE188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF188">
         <v>0</v>
@@ -38800,13 +38800,13 @@
         <v>0</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA189">
         <v>0</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC189">
         <v>0</v>
@@ -38815,7 +38815,7 @@
         <v>11</v>
       </c>
       <c r="AE189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF189">
         <v>0</v>
@@ -39630,7 +39630,7 @@
         <v>0</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC193">
         <v>0</v>
@@ -39639,7 +39639,7 @@
         <v>21</v>
       </c>
       <c r="AE193">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF193">
         <v>0</v>
@@ -39830,13 +39830,13 @@
         <v>0</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA194">
         <v>0</v>
       </c>
       <c r="AB194">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -39845,7 +39845,7 @@
         <v>106</v>
       </c>
       <c r="AE194">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF194">
         <v>0</v>
@@ -40449,7 +40449,7 @@
         <v>0</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC197">
         <v>0</v>
@@ -40458,7 +40458,7 @@
         <v>192</v>
       </c>
       <c r="AE197">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF197">
         <v>0</v>
@@ -48700,7 +48700,7 @@
         <v>0</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC239">
         <v>0</v>
@@ -48709,7 +48709,7 @@
         <v>303</v>
       </c>
       <c r="AE239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF239">
         <v>0</v>
@@ -50966,7 +50966,7 @@
         <v>0</v>
       </c>
       <c r="AB250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC250">
         <v>0</v>
@@ -50975,7 +50975,7 @@
         <v>265</v>
       </c>
       <c r="AE250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF250">
         <v>0</v>
@@ -51172,7 +51172,7 @@
         <v>0</v>
       </c>
       <c r="AB251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC251">
         <v>0</v>
@@ -51181,7 +51181,7 @@
         <v>191</v>
       </c>
       <c r="AE251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF251">
         <v>0</v>
@@ -54668,13 +54668,13 @@
         <v>0</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA268">
         <v>0</v>
       </c>
       <c r="AB268">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC268">
         <v>0</v>
@@ -54874,7 +54874,7 @@
         <v>0</v>
       </c>
       <c r="Z269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA269">
         <v>0</v>
@@ -54889,7 +54889,7 @@
         <v>31</v>
       </c>
       <c r="AE269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF269">
         <v>0</v>
